--- a/epigraphhub/data/brasil/sinan/metadata/BOTU.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/BOTU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="568">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -399,8 +399,7 @@
     <t xml:space="preserve">STVOMITO</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Sinais e sintomas
-Diarréia</t>
+    <t xml:space="preserve">42. Sinais e sintomas Diarréia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_diarreia</t>
@@ -547,8 +546,7 @@
     <t xml:space="preserve">STFLACIDEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Sinais e sintomas
-Dispnéia</t>
+    <t xml:space="preserve">42. Sinais e sintomas Dispnéia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_dispneia</t>
@@ -733,68 +731,13 @@
     <t xml:space="preserve">STMIDRIASE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">43. Exame Neurológico </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Paralisia Facial</t>
-    </r>
+    <t xml:space="preserve">43. Exame Neurológico Paralisia Facial</t>
   </si>
   <si>
     <t xml:space="preserve">st_exame_paralisia_facial</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 – Sim
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 – Não
-9 – Ignorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar se o exame </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">neurológico apresentou Paralisia Facial</t>
-    </r>
+    <t xml:space="preserve">Informar se o exame neurológico apresentou Paralisia Facial</t>
   </si>
   <si>
     <t xml:space="preserve">STFACIAL</t>
@@ -960,8 +903,7 @@
     <t xml:space="preserve">DSALIMENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Produção do alimento suspeito
-Industrial/ Comercial</t>
+    <t xml:space="preserve">47. Produção do alimento suspeito Industrial/ Comercial</t>
   </si>
   <si>
     <t xml:space="preserve">st_alimento_industrial</t>
@@ -996,8 +938,7 @@
     <t xml:space="preserve">STCOMERCIO</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Produção do alimento suspeito
-Caseira</t>
+    <t xml:space="preserve">47. Produção do alimento suspeito Caseira</t>
   </si>
   <si>
     <t xml:space="preserve">st_alimento_caseira</t>
@@ -1033,50 +974,15 @@
     <t xml:space="preserve">STCASEIRA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">48. Se Industrial/ Comercial,
-especificar marca, data </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">de validade e lote</t>
-    </r>
+    <t xml:space="preserve">48. Se Industrial/ Comercial, especificar marca, data de validade e lote</t>
   </si>
   <si>
     <t xml:space="preserve">ds_alimento_industrial</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar o nome
-comercial, nome da </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">empresa produtora, data de validade e lote do alimento industrial
+    <t xml:space="preserve">Informar o nome
+comercial, nome da empresa produtora, data de validade e lote do alimento industrial
 Suspeito</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">DS_INDUS</t>
@@ -1442,8 +1348,7 @@
     <t xml:space="preserve">STANTIBIO</t>
   </si>
   <si>
-    <t xml:space="preserve">57. Tratamento
-Soro antibotulínico</t>
+    <t xml:space="preserve">57. Tratamento Soro antibotulínico</t>
   </si>
   <si>
     <t xml:space="preserve">st_trata_soro_antibotulinico</t>
@@ -1468,8 +1373,7 @@
     <t xml:space="preserve">STOUTROTRA</t>
   </si>
   <si>
-    <t xml:space="preserve">57. Tratamento
-Se outros, especificar</t>
+    <t xml:space="preserve">57. Tratamento Se outros, especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_trata_outro</t>
@@ -1521,8 +1425,7 @@
     <t xml:space="preserve">DTSORO</t>
   </si>
   <si>
-    <t xml:space="preserve">59. Se recebeu soro antibotulínico, foi após a coleta do material clínico
-?</t>
+    <t xml:space="preserve">59. Se recebeu soro antibotulínico, foi após a coleta do material clínico ?</t>
   </si>
   <si>
     <t xml:space="preserve">st_antibotulinico_coleta</t>
@@ -1556,8 +1459,7 @@
     <t xml:space="preserve">STANTIBOTU</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Coletou material ?
-Material coletado Soro</t>
+    <t xml:space="preserve">60. Coletou material ? Material coletado Soro</t>
   </si>
   <si>
     <t xml:space="preserve">st_botuli_soro_coletado</t>
@@ -1804,8 +1706,7 @@
     <t xml:space="preserve">TPFEZESTOX</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Material coletado
-Especificar Alimento 1</t>
+    <t xml:space="preserve">60. Material coletado Especificar Alimento 1</t>
   </si>
   <si>
     <t xml:space="preserve">ds_botuli_alimento1_outro</t>
@@ -1931,8 +1832,7 @@
     <t xml:space="preserve">TP_ALI1TOX</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Material coletado
-Especificar Alimento 2</t>
+    <t xml:space="preserve">60. Material coletado Especificar Alimento 2</t>
   </si>
   <si>
     <t xml:space="preserve">ds_botuli_alimento2_outro</t>
@@ -1985,8 +1885,7 @@
     <t xml:space="preserve">DS_ALI2OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Coletou Material?
-Alimento 2</t>
+    <t xml:space="preserve">60. Coletou Material? Alimento 2</t>
   </si>
   <si>
     <t xml:space="preserve">st_botuli_alimento2_coletado</t>
@@ -2329,28 +2228,7 @@
     <t xml:space="preserve">DT_LIQUOR</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">63. Exames complementares
-número de células/mm</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
+    <t xml:space="preserve">63. Exames complementares número de células/mm3</t>
   </si>
   <si>
     <t xml:space="preserve">nu_liquor_celula</t>
@@ -2384,8 +2262,7 @@
     <t xml:space="preserve">NU_CELULA</t>
   </si>
   <si>
-    <t xml:space="preserve">64. Exames complementares
-Proteínas mg%</t>
+    <t xml:space="preserve">64. Exames complementares Proteínas mg%</t>
   </si>
   <si>
     <t xml:space="preserve">nu_liquor_proteina</t>
@@ -2645,8 +2522,7 @@
     <t xml:space="preserve">AGENTE_OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">71. Critério de confirmação/
-descarte</t>
+    <t xml:space="preserve">71. Critério de confirmação/ descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -2771,8 +2647,7 @@
     <t xml:space="preserve">STCLINICA</t>
   </si>
   <si>
-    <t xml:space="preserve">73. Presença de toxina botulínica na amostra
-Bromatológica</t>
+    <t xml:space="preserve">73. Presença de toxina botulínica na amostra Bromatológica</t>
   </si>
   <si>
     <t xml:space="preserve">st_butolinica_bromatologica</t>
@@ -2832,8 +2707,7 @@
     <t xml:space="preserve">TPCLINICA</t>
   </si>
   <si>
-    <t xml:space="preserve">74. Tipo de toxina isolada na amostra
-Bromatológica</t>
+    <t xml:space="preserve">74. Tipo de toxina isolada na amostra Bromatológica</t>
   </si>
   <si>
     <t xml:space="preserve">tp_tox_isolada_bromatologica</t>
@@ -3028,8 +2902,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações complementares e observações
-Tipo de alimento 1</t>
+    <t xml:space="preserve">Informações complementares e observações Tipo de alimento 1</t>
   </si>
   <si>
     <t xml:space="preserve">ds_tp_alimento_1</t>
@@ -3042,8 +2915,7 @@
     <t xml:space="preserve">DS_ALI1</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações Complementares e observações
-Tipo de alimento 2</t>
+    <t xml:space="preserve">Informações Complementares e observações Tipo de alimento 2</t>
   </si>
   <si>
     <t xml:space="preserve">ds_tp_alimento_2</t>
@@ -3057,8 +2929,7 @@
     <t xml:space="preserve">DS_ALI2</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações Complementares e observações
-Local de consumo 1</t>
+    <t xml:space="preserve">Informações Complementares e observações Local de consumo 1</t>
   </si>
   <si>
     <t xml:space="preserve">ds_local_consumo_1</t>
@@ -3072,8 +2943,7 @@
     <t xml:space="preserve">DS_LOCAL1</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações Complementares e observações
-Local de consumo 2</t>
+    <t xml:space="preserve">Informações Complementares e observações Local de consumo 2</t>
   </si>
   <si>
     <t xml:space="preserve">ds_local_consumo_2</t>
@@ -3131,7 +3001,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3168,26 +3038,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3256,7 +3107,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3266,11 +3117,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3282,6 +3137,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3368,16 +3227,16 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="13" sqref="A16 A28 A49:A51 A68 A70 A72:A73 A81 A86:A87 A98:A99 A107 A110 A112 A118:A121 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="38.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="38.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="38.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3402,2806 +3261,2806 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="G40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="E41" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="G45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="G66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E67" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="G67" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="E68" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="G68" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E69" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="G73" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E77" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="G82" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="G87" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="E92" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="D106" s="7"/>
+      <c r="E106" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E109" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="E110" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="D113" s="7"/>
+      <c r="E113" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="G113" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="E114" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="D118" s="7"/>
+      <c r="E118" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="D119" s="7"/>
+      <c r="E119" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="D120" s="7"/>
+      <c r="E120" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="G120" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="121" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="D121" s="7"/>
+      <c r="E121" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="5" t="s">
+      <c r="G121" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="5" t="s">
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="5" t="s">
+      <c r="F122" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="G122" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="H122" s="7"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
